--- a/data/trans_orig/VUL_INSOM-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_INSOM-Estudios-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en País Vasco</t>
+          <t>Vulnerabilidad ante el insomnio en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2155,7 +2155,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en C.Valenciana</t>
+          <t>Vulnerabilidad ante el insomnio en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_INSOM-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_INSOM-Estudios-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3578</t>
+          <t>3124</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5247</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15486</t>
+          <t>15016</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12656</t>
+          <t>12202</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19253</t>
+          <t>18533</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>19064</t>
+          <t>18140</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>15846</t>
+          <t>14816</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>23037</t>
+          <t>21812</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,71%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84265</t>
+          <t>79092</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82596</t>
+          <t>77598</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85566</t>
+          <t>80241</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>112158</t>
+          <t>106370</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>108391</t>
+          <t>102853</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>114988</t>
+          <t>109184</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,87%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,92%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>196424</t>
+          <t>185463</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>192451</t>
+          <t>181791</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>199642</t>
+          <t>188787</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>89,29%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>92,72%</t>
         </is>
       </c>
     </row>
@@ -960,17 +960,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -995,17 +995,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1077,32 +1077,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23697</t>
+          <t>21527</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19540</t>
+          <t>18030</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28582</t>
+          <t>25792</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,32 +1112,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36935</t>
+          <t>36215</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31969</t>
+          <t>31714</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>42273</t>
+          <t>41357</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,32 +1147,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>60632</t>
+          <t>57742</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>54210</t>
+          <t>51515</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>67813</t>
+          <t>64374</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -1190,32 +1190,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>428268</t>
+          <t>439311</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>423383</t>
+          <t>435046</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>432425</t>
+          <t>442808</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>394722</t>
+          <t>408762</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>389384</t>
+          <t>403620</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>399688</t>
+          <t>413263</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>822990</t>
+          <t>848073</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>815809</t>
+          <t>841441</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>829412</t>
+          <t>854300</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>94,31%</t>
         </is>
       </c>
     </row>
@@ -1303,17 +1303,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1338,17 +1338,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1373,17 +1373,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1420,32 +1420,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3531</t>
+          <t>4596</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5374</t>
+          <t>6935</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,32 +1455,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7802</t>
+          <t>7699</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5606</t>
+          <t>5641</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10206</t>
+          <t>10458</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,32 +1490,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>11333</t>
+          <t>12295</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8880</t>
+          <t>9677</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>14474</t>
+          <t>15834</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -1533,32 +1533,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>147488</t>
+          <t>170768</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145645</t>
+          <t>168429</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>148688</t>
+          <t>172319</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,32 +1568,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>186878</t>
+          <t>220834</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>184474</t>
+          <t>218075</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>189074</t>
+          <t>222892</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,32 +1603,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>334366</t>
+          <t>391602</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>331225</t>
+          <t>388063</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>336819</t>
+          <t>394220</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>97,6%</t>
         </is>
       </c>
     </row>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1716,17 +1716,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1763,32 +1763,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30807</t>
+          <t>29247</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26382</t>
+          <t>24588</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36194</t>
+          <t>33508</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1798,32 +1798,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60222</t>
+          <t>58930</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>53903</t>
+          <t>52947</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>67195</t>
+          <t>65365</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1833,32 +1833,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>91029</t>
+          <t>88176</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>83042</t>
+          <t>80340</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>99350</t>
+          <t>96328</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -1876,32 +1876,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>660020</t>
+          <t>689172</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>654633</t>
+          <t>684911</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>664445</t>
+          <t>693831</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1911,32 +1911,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>693759</t>
+          <t>735966</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>686786</t>
+          <t>729531</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>700078</t>
+          <t>741949</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>93,34%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1946,32 +1946,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1353780</t>
+          <t>1425139</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1345459</t>
+          <t>1416987</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1361767</t>
+          <t>1432975</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>94,17%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>94,69%</t>
         </is>
       </c>
     </row>
@@ -1989,17 +1989,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2024,17 +2024,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2059,17 +2059,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">

--- a/data/trans_orig/VUL_INSOM-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_INSOM-Estudios-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante el insomnio en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3124</t>
+          <t>9895</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>6775</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4618</t>
+          <t>14569</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15016</t>
+          <t>28101</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12202</t>
+          <t>22113</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18533</t>
+          <t>36307</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>103</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>18140</t>
+          <t>37996</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>14816</t>
+          <t>30510</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>21812</t>
+          <t>46574</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>9,52%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>521</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79092</t>
+          <t>205901</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77598</t>
+          <t>201227</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80241</t>
+          <t>209021</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>573</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>106370</t>
+          <t>245580</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>102853</t>
+          <t>237374</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>109184</t>
+          <t>251568</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>185463</t>
+          <t>451482</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>181791</t>
+          <t>442904</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>188787</t>
+          <t>458968</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>92,72%</t>
+          <t>93,77%</t>
         </is>
       </c>
     </row>
@@ -955,22 +955,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -990,22 +990,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1025,22 +1025,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1072,107 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21527</t>
+          <t>20850</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18030</t>
+          <t>15037</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25792</t>
+          <t>28244</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>46909</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37724</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>57607</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>67759</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>57403</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>80683</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
           <t>3,91%</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>36215</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>31714</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>41357</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>8,14%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>7,13%</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>9,29%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>57742</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>51515</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>64374</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -1185,107 +1185,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>439311</t>
+          <t>841255</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>435046</t>
+          <t>833861</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>442808</t>
+          <t>847068</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>98,26%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1431</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>823167</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>812469</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>832352</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>94,61%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>93,38%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>95,66%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3014</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1664422</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1651498</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1674778</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
           <t>96,09%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2292</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>408762</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>403620</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>413263</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>91,86%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>90,71%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>92,87%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>4799</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>848073</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>841441</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>854300</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>93,63%</t>
-        </is>
-      </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>96,69%</t>
         </is>
       </c>
     </row>
@@ -1298,22 +1298,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>862105</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>862105</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>862105</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1333,22 +1333,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>870076</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>870076</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>870076</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1368,22 +1368,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5142</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>1732181</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>1732181</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>1732181</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1415,107 +1415,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4596</t>
+          <t>6609</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6935</t>
+          <t>12072</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7699</t>
+          <t>12472</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5641</t>
+          <t>8384</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10458</t>
+          <t>17971</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12295</t>
+          <t>19082</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9677</t>
+          <t>12911</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15834</t>
+          <t>26193</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -1528,107 +1528,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>640</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>170768</t>
+          <t>372159</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>168429</t>
+          <t>366696</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>172319</t>
+          <t>375074</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,26%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>220834</t>
+          <t>402236</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>218075</t>
+          <t>396737</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>222892</t>
+          <t>406324</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2038</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>391602</t>
+          <t>774394</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>388063</t>
+          <t>767283</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>394220</t>
+          <t>780565</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>98,37%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +1641,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>656</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>378768</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>378768</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>378768</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1676,22 +1676,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>697</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>414708</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>414708</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>414708</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1711,22 +1711,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>793476</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>793476</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>793476</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1758,107 +1758,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29247</t>
+          <t>37354</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24588</t>
+          <t>29678</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33508</t>
+          <t>45886</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87483</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>75342</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>101918</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>124837</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>110568</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>140410</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
           <t>4,66%</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>353</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>58930</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>52947</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>65365</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>7,41%</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>6,66%</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>8,22%</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>88176</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>80340</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>96328</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>5,31%</t>
-        </is>
-      </c>
-      <c r="W13" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -1871,107 +1871,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3868</t>
+          <t>2744</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>689172</t>
+          <t>1419315</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>684911</t>
+          <t>1410783</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>693831</t>
+          <t>1426991</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>96,85%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>97,96%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2675</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1470982</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1456547</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1483123</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>94,39%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>93,46%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>95,17%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5419</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2890298</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>2874725</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>2904567</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>95,86%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
           <t>95,34%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>96,58%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4105</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>735966</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>729531</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>741949</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>92,59%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>91,78%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>93,34%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>7973</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>1425139</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>1416987</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>1432975</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>94,17%</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>93,63%</t>
-        </is>
-      </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>96,33%</t>
         </is>
       </c>
     </row>
@@ -1984,22 +1984,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>1456669</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>1456669</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>1456669</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2019,22 +2019,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4458</t>
+          <t>2868</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>1558465</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>1558465</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>1558465</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2054,22 +2054,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8504</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>3015135</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>3015135</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>3015135</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2155,7 +2155,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en C.Valenciana (tasa de respuesta: 99,79%)</t>
+          <t>Vulnerabilidad ante el insomnio en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2340,107 +2340,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9895</t>
+          <t>3124</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14569</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28101</t>
+          <t>15016</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>22113</t>
+          <t>12202</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>36307</t>
+          <t>18533</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>118</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>37996</t>
+          <t>18140</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>30510</t>
+          <t>14816</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>46574</t>
+          <t>21812</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>10,71%</t>
         </is>
       </c>
     </row>
@@ -2453,107 +2453,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>479</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>205901</t>
+          <t>79092</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>201227</t>
+          <t>77598</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>209021</t>
+          <t>80241</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>657</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>245580</t>
+          <t>106370</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>237374</t>
+          <t>102853</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>251568</t>
+          <t>109184</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>89,73%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>451482</t>
+          <t>185463</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>442904</t>
+          <t>181791</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>458968</t>
+          <t>188787</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>89,29%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>92,72%</t>
         </is>
       </c>
     </row>
@@ -2566,22 +2566,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>501</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2601,22 +2601,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>753</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2636,22 +2636,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2683,107 +2683,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20850</t>
+          <t>21527</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15037</t>
+          <t>18030</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28244</t>
+          <t>25792</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46909</t>
+          <t>36215</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37724</t>
+          <t>31714</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>57607</t>
+          <t>41357</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>343</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>67759</t>
+          <t>57742</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>57403</t>
+          <t>51515</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>80683</t>
+          <t>64374</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -2796,107 +2796,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>2507</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>841255</t>
+          <t>439311</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>833861</t>
+          <t>435046</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>847068</t>
+          <t>442808</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,26%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>2292</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>823167</t>
+          <t>408762</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>812469</t>
+          <t>403620</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>832352</t>
+          <t>413263</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>4799</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1664422</t>
+          <t>848073</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1651498</t>
+          <t>841441</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1674778</t>
+          <t>854300</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>94,31%</t>
         </is>
       </c>
     </row>
@@ -2909,22 +2909,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862105</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862105</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862105</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2944,22 +2944,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>870076</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>870076</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>870076</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2979,22 +2979,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>5142</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1732181</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1732181</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1732181</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3026,107 +3026,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6609</t>
+          <t>4596</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12072</t>
+          <t>6935</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1,74%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12472</t>
+          <t>7699</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8384</t>
+          <t>5641</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17971</t>
+          <t>10458</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>19082</t>
+          <t>12295</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12911</t>
+          <t>9677</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>26193</t>
+          <t>15834</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>2,4%</t>
         </is>
       </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -3139,107 +3139,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>882</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>372159</t>
+          <t>170768</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>366696</t>
+          <t>168429</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>375074</t>
+          <t>172319</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>97,38%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>96,05%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>98,26%</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>96,81%</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>99,02%</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>1156</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>402236</t>
+          <t>220834</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>396737</t>
+          <t>218075</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>406324</t>
+          <t>222892</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>2038</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>774394</t>
+          <t>391602</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>767283</t>
+          <t>388063</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>780565</t>
+          <t>394220</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
+          <t>96,96%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>96,08%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
           <t>97,6%</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="inlineStr">
-        <is>
-          <t>96,7%</t>
-        </is>
-      </c>
-      <c r="W11" s="2" t="inlineStr">
-        <is>
-          <t>98,37%</t>
         </is>
       </c>
     </row>
@@ -3252,22 +3252,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>906</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378768</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378768</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378768</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3287,22 +3287,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>414708</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>414708</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>414708</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3322,22 +3322,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>793476</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>793476</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>793476</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3369,107 +3369,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37354</t>
+          <t>29247</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29678</t>
+          <t>24588</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45886</t>
+          <t>33508</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>353</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87483</t>
+          <t>58930</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>75342</t>
+          <t>52947</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>101918</t>
+          <t>65365</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>531</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>124837</t>
+          <t>88176</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>110568</t>
+          <t>80340</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>140410</t>
+          <t>96328</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -3482,107 +3482,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2744</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1419315</t>
+          <t>689172</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1410783</t>
+          <t>684911</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1426991</t>
+          <t>693831</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2675</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1470982</t>
+          <t>735966</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1456547</t>
+          <t>729531</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1483123</t>
+          <t>741949</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>93,34%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5419</t>
+          <t>7973</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2890298</t>
+          <t>1425139</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2874725</t>
+          <t>1416987</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2904567</t>
+          <t>1432975</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>94,17%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>94,69%</t>
         </is>
       </c>
     </row>
@@ -3595,22 +3595,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456669</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456669</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456669</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3630,22 +3630,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558465</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558465</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558465</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3665,22 +3665,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>8504</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015135</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015135</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015135</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
